--- a/WebContent/jsp/cooperation/model/DebtInfoModel.xlsx
+++ b/WebContent/jsp/cooperation/model/DebtInfoModel.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="189">
   <si>
     <t>年月</t>
   </si>
   <si>
-    <t>合作社名称</t>
-  </si>
-  <si>
-    <t>组织机构编码</t>
-  </si>
-  <si>
     <t>货币资金</t>
   </si>
   <si>
@@ -283,10 +277,6 @@
   </si>
   <si>
     <t>利润净额(期末值)</t>
-  </si>
-  <si>
-    <t>201403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试数据1</t>
@@ -588,11 +578,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长数据测试</t>
+    <t>测试数据4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试数据4</t>
+    <t>2014-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作社名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,12 +973,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CK5"/>
+  <dimension ref="A1:CK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CC1" sqref="CC1"/>
-      <selection pane="bottomLeft" activeCell="CE5" sqref="CE5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -986,1072 +992,1072 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:89">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BO2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BV2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="CA2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="CB2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="CC2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="CA2" s="3" t="s">
+      <c r="CD2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CF2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="CK2" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:89">
       <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BO3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BV3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="CB3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CC3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="CH3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:89">
       <c r="B4" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BH4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BI4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BJ4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BK4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BL4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BM4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BN4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BP4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BQ4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BR4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BS4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BT4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BV4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BW4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BX4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BZ4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CB4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="CC4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CD4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="CE4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="CC4" s="3" t="s">
+      <c r="CF4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="CE4" s="3" t="s">
+      <c r="CH4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CI4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CJ4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="CH4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI4" s="3" t="s">
+      <c r="CK4" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="CK4" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:89">
@@ -2059,272 +2065,544 @@
         <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CC5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CJ5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CK5" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89">
+      <c r="A6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AP6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AR6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AS6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AT6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AU6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AV6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AW6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AX6" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AY6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AZ6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AX5" s="3" t="s">
+      <c r="BA6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="BB6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="BC6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BD6" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BE6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BF6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BG6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BH6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BI6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BJ6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BK6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BL6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BJ5" s="3" t="s">
+      <c r="BM6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BN6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BO6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BP6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BQ6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BR6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="BP5" s="3" t="s">
+      <c r="BS6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BT6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BV6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BW6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BY6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BZ6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="CA6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="CB6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="CC6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CD6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="CB5" s="3" t="s">
+      <c r="CE6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CF6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CG6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="CE5" s="3" t="s">
+      <c r="CH6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CI6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CJ6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="CH5" s="3" t="s">
+      <c r="CK6" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="CI5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CJ5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="CK5" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="年月格式必须为 yyyy-MM&#10;例: 2015-01" sqref="A1:A1048576">
+      <formula1>TEXT(A1,"")=""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="合作社名称 不能为空" sqref="B1:B1048576">
+      <formula1>LEN(B1)&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="组织机构编码 不能为空" sqref="C1:C1048576">
+      <formula1>LEN(C1)&gt;0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
